--- a/static/data/python/sample exams/Clinton/Clinton_exam_sample_019.xlsx
+++ b/static/data/python/sample exams/Clinton/Clinton_exam_sample_019.xlsx
@@ -31,339 +31,339 @@
     <t>System</t>
   </si>
   <si>
-    <t>(295038EK2.06) Knowledge of the relationship between the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE and the following systems or components: (CFR: 41.7 / 45.8) Process radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295023AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 23) REFUELING ACCIDENTS: (CFR: 41.5 / 45.6) Non-coincident SCRAM function</t>
-  </si>
-  <si>
-    <t>(295031EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.8 to 41.10) Adequate core cooling</t>
-  </si>
-  <si>
-    <t>(295030EA1.07) Ability to operate and/or monitor the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) Plant process computer/parameter display systems</t>
-  </si>
-  <si>
-    <t>(295016) (APE 16) CONTROL ROOM ABANDONMENT (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295003AA2.04) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) System lineups </t>
-  </si>
-  <si>
-    <t>(295001AK2.02) Knowledge of the relationship between the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION and the following systems or components: (CFR: 41.7 / 45.8) Nuclear boiler instrumentation</t>
-  </si>
-  <si>
-    <t>(295025EK3.09) Knowledge of the reasons for the following responses or actions as they apply to (EPE 2) HIGH REACTOR PRESSURE: (CFR: 41.5 / 45.6) Low-low set initiation</t>
-  </si>
-  <si>
-    <t>(295026EK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.8 to 41.10) Pump NPSH</t>
-  </si>
-  <si>
-    <t>(700000AA1.02) Ability to operate and/or monitor the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 41.10 / 45.5 / 45.7 / 45.8) Turbine/generator controls</t>
-  </si>
-  <si>
-    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.1.21) CONDUCT OF OPERATIONS Ability to verify that a copy of a controlled procedure is the proper revision (CFR: 41.10 / 45.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295018AA2.05) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) System pressure</t>
-  </si>
-  <si>
-    <t>(295024EK2.10) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) AC electrical distribution</t>
-  </si>
-  <si>
-    <t>(295005AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Main generator trip</t>
-  </si>
-  <si>
-    <t>(295021AK1.04) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 21) LOSS OF SHUTDOWN COOLING:(CFR: 41.8 to 41.10) Natural circulation</t>
-  </si>
-  <si>
-    <t>(295006AA1.05) Ability to operate and/or monitor the following as they apply to (APE 6) SCRAM: (CFR: 41.7 / 45.6) Neutron monitoring system</t>
-  </si>
-  <si>
-    <t>(295037) (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN (G2.1.30) CONDUCT OF OPERATIONS Ability to locate and operate components, including local controls (CFR: 41.7 / 45.7)</t>
+    <t>(295001AK1.02) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.8 to 41.10) Power/flow distribution</t>
+  </si>
+  <si>
+    <t>(700000AA2.07) Ability to determine and/or interpret the following as they apply to (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES: (CFR: 41.5 / 43.5 / 45.5 / 45.7 / 45.8) Operations status of safety-related (vital) buses</t>
+  </si>
+  <si>
+    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.4.31) EMERGENCY PROCEDURES / PLAN Knowledge of annunciator alarms, indications, or response procedures (CFR: 41.10 / 45.3)</t>
+  </si>
+  <si>
+    <t>(295027EA1.02) Ability to operate and/or monitor the following as they apply to (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.7 / 45.6) Containment ventilation/cooling</t>
+  </si>
+  <si>
+    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
+  </si>
+  <si>
+    <t>(295023AK2.01) Knowledge of the relationship between the (APE 23) REFUELING ACCIDENTS and the following systems or components: (CFR: 41.7 / 45.8) Fuel handling equipment</t>
+  </si>
+  <si>
+    <t>(295019AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.5 / 45.6) Dryer/filter realignment</t>
+  </si>
+  <si>
+    <t>(295026EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 3) SUPPRESSION POOL HIGH WATER TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Suppression pool water temperature</t>
+  </si>
+  <si>
+    <t>(295025) (EPE 2) HIGH REACTOR PRESSURE (G2.4.23) EMERGENCY PROCEDURES / PLAN Knowledge of the bases for prioritizing emergency operating procedures implementation (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295037EA1.12) Ability to operate and/or monitor the following as they apply to (EPE 14) SCRAM CONDITION PRESENT AND REACTOR POWER ABOVE APRM DOWNSCALE OR UNKNOWN: (CFR: 41.7 / 45.5 to 45.8) Recirculation system</t>
+  </si>
+  <si>
+    <t>(295016AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
+  </si>
+  <si>
+    <t>(295024EK2.21) Knowledge of the relationship between the (EPE 1) HIGH DRYWELL PRESSURE and the following systems or components: (CFR: 41.7 / 45.8) RCIC</t>
+  </si>
+  <si>
+    <t>(295006AK1.03) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 6) SCRAM:(CFR: 41.8 to 41.10) Reactivity control</t>
+  </si>
+  <si>
+    <t>(295018AA2.02) Ability to determine and/or interpret the following as they apply to (APE 18) PARTIAL OR COMPLETE LOSS OF COMPONENT COOLING WATER (CCW): (CFR: 41.10 / 43.5 / 45.13) Cooling water temperature</t>
+  </si>
+  <si>
+    <t>(295004) (APE 4) PARTIAL OR COMPLETE LOSS OF DC POWER (G2.2.44) EQUIPMENT CONTROL Ability to interpret control room indications to verify the status and operation of a system and understand how operator actions and directives affect plant and system conditions (CFR: 41.5 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(295021AA1.03) Ability to operate and/or monitor the following as they apply to (APE 21) LOSS OF SHUTDOWN COOLING: (CFR: 41.7 / 45.6) Component cooling water systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295005AK3.07) Knowledge of the reasons for the following responses or actions as they apply to (APE 5) MAIN TURBINE GENERATOR TRIP: (CFR: 41.5 / 45.6) Turbine bypass valve operation </t>
+  </si>
+  <si>
+    <t>(295031EK2.08) Knowledge of the relationship between the (EPE 8) REACTOR LOW WATER LEVEL and the following systems or components: (CFR: 41.7 / 45.8) Automatic depressurization system</t>
+  </si>
+  <si>
+    <t>(295038EK1.05) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.8 to 41.10) Exceeding limits for gaseous/liquid releases</t>
+  </si>
+  <si>
+    <t>(295030EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 7) LOW SUPPRESSION POOL WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Suppression pool level</t>
+  </si>
+  <si>
+    <t>(295029EA1.03) Ability to operate and/or monitor the following as they apply to (EPE 6) HIGH SUPPRESSION POOL WATER LEVEL: (CFR: 41.7 / 45.6) RHR/LPCI</t>
+  </si>
+  <si>
+    <t>(295033EK3.02) Knowledge of the reasons for the following responses or actions as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.5 / 45.6) Reactor shutdown/SCRAM</t>
+  </si>
+  <si>
+    <t>(295002AK2.10) Knowledge of the relationship between the (APE 2) LOSS OF MAIN CONDENSER VACUUM and the following systems or components: (CFR: 41.7 / 45.8) Recirculation flow control system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295012AK1.01) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 12) HIGH DRYWELL TEMPERATURE: (CFR: 41.8 to 41.10) Drywell pressure </t>
+  </si>
+  <si>
+    <t>(295007AA2.01) Ability to determine and/or interpret the following as they apply to (APE 7) HIGH REACTOR PRESSURE: (CFR: 41.10 / 43.5 / 45.13) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(295022) (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS (G2.4.37) EMERGENCY PROCEDURES / PLAN Knowledge of the lines of authority during implementation of the emergency plan implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(300000A4.02) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Instrument air compressors</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+  </si>
+  <si>
+    <t>(239002K4.02) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Minimizes containment fatigue duty cycles resulting from relief valve cycling during decay-heat-dominant period late in an isolation transient (low-low set logic)</t>
+  </si>
+  <si>
+    <t>(259002A2.03) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of reactor water level input</t>
+  </si>
+  <si>
+    <t>(215005K2.02) (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR Knowledge of electrical power supplies to the following: (CFR: 41.7) APRM channels</t>
+  </si>
+  <si>
+    <t>(218000A3.10) Ability to monitor automatic operation of the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM including: (CFR: 41.7 / 45.7) ADS logic</t>
+  </si>
+  <si>
+    <t>(262002K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC): (CFR: 41.7 / 45.7) Motor generator</t>
+  </si>
+  <si>
+    <t>(215004K1.03) Knowledge of the physical connections and/or cause and effect relationships between the (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RCIS (BWR 6)</t>
+  </si>
+  <si>
+    <t>(215003K3.02) Knowledge of the effect that a loss or malfunction of the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor manual control</t>
+  </si>
+  <si>
+    <t>(263000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF6 DC) DC ELECTRICAL DISTRIBUTION: (CFR: 41.5 / 45.3) Ground detection</t>
+  </si>
+  <si>
+    <t>(261000A1.01) Ability to predict and/or monitor changes in parameters associated with operation of the (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM including: (CFR: 41.5 / 45.5) System flow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(209001A4.02) Ability to manually operate and/or monitor the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) Valves </t>
+  </si>
+  <si>
+    <t>(262001) (SF6 AC) AC ELECTRICAL DISTRIBUTION (291004K1.17) PUMPS (CFR: 41.3) (CENTRIFUGAL) Using a centrifugal pump characteristic curve and a system characteristic curve, illustrate how the system operating point changes due to system changes</t>
+  </si>
+  <si>
+    <t>(212000K4.13) Knowledge of (SF7 RPS) REACTOR PROTECTION SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Underfrequency, overvoltage, and undervoltage protection</t>
+  </si>
+  <si>
+    <t>(217000A2.13) Ability to (a) predict the impacts of the following on the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of room cooling</t>
+  </si>
+  <si>
+    <t>(264000K2.07) (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) Knowledge of electrical power supplies to the following: (CFR: 41.7) DC components</t>
+  </si>
+  <si>
+    <t>(400000A3.05) Ability to monitor automatic operation of the (SF8 CCS) COMPONENT COOLING WATER SYSTEM including: (CFR: 41.7 / 45.7) System response due to a LOCA signal</t>
+  </si>
+  <si>
+    <t>(223002K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF : (CFR: 41.7 / 45.7) DC electrical distribution</t>
+  </si>
+  <si>
+    <t>(211000K1.05) Knowledge of the physical connections and/or cause and effect relationships between the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) RWCU system</t>
+  </si>
+  <si>
+    <t>(205000K3.05) Knowledge of the effect that a loss or malfunction of the (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Fuel pool cooling and cleanup</t>
+  </si>
+  <si>
+    <t>(209002K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM : (CFR: 41.5 / 45.3) Adequate core cooling</t>
+  </si>
+  <si>
+    <t>(510000A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF4 SWS*) SERVICE WATER SYSTEM including: (CFR: 41.5 / 45.5) Service water temperatures</t>
+  </si>
+  <si>
+    <t>(300000A4.03) Ability to manually operate and/or monitor the (SF8 IA) INSTRUMENT AIR SYSTEM in the control room: (CFR: 41.8 / 45.5 to 45.8) Manual isolations</t>
+  </si>
+  <si>
+    <t>(203000) (SF2, SF4 RHR/LPCI) RHR/LPCI:  INJECTION MODE (G2.4.17) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures terms and definitions (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(239002K4.07) Knowledge of (SF3 SRV) SAFETY RELIEF VALVES design features and/or interlocks that provide for the following: (CFR: 41.7) Minimum steam pressure required to keep SRV open or to open SRV</t>
+  </si>
+  <si>
+    <t>(259002A2.09) Ability to (a) predict the impacts of the following on the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) FWCI system failure alarm</t>
+  </si>
+  <si>
+    <t>(241000K5.04) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 RTPRS) REACTOR/TURBINE PRESSURE REGULATING SYSTEM: (CFR: 41.5 / 45.3) Turbine inlet pressure vs. reactor pressure</t>
+  </si>
+  <si>
+    <t>(216000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF7 NBI) NUCLEAR BOILER INSTRUMENTATION including: (CFR: 41.5 / 45.5) RPV pressure</t>
+  </si>
+  <si>
+    <t>(204000A4.01) Ability to manually operate and/or monitor the (SF2 RWCU) REACTOR WATER CLEANUP SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) System pumps</t>
+  </si>
+  <si>
+    <t>(290001) (SF5 SC) SECONDARY CONTAINMENT (291005K1.09) MOTORS AND GENERATORS (CFR: 41.7) Interrelations of the following: VARs, watts, amps, volts, power factor</t>
+  </si>
+  <si>
+    <t>(271000K4.02) Knowledge of (SF9 OG) OFFGAS SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Prevention of water entering the recombiner catalyst</t>
+  </si>
+  <si>
+    <t>(290002A2.03) Ability to (a) predict the impacts of the following on the (SF4 RVI) REACTOR VESSEL INTERNALS and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Control rod drop accident</t>
+  </si>
+  <si>
+    <t>(202001K2.07) (SF1, SF4 RS) RECIRCULATION SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) VFD cooling water pumps</t>
+  </si>
+  <si>
+    <t>(286000A3.05) Ability to monitor automatic operation of the (SF8 FPS) FIRE PROTECTION SYSTEM including: (CFR: 41.7 / 45.7) Fire doors</t>
+  </si>
+  <si>
+    <t>(201003K6.02) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 CRDM) CONTROL ROD AND DRIVE MECHANISM: (CFR: 41.1-6 / 45.1-6) Reactor pressure</t>
+  </si>
+  <si>
+    <t>(245000K1.04) Knowledge of the physical connections and/or cause and effect relationships between the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Reactor protection system</t>
+  </si>
+  <si>
+    <t>(201005K3.05) Knowledge of the effect that a loss or malfunction of the (SF1, SF7 RCIS) ROD CONTROL AND INFORMATION SYSTEM (BWR 6) will have on the following systems or system parameters: (CFR: 41.6 / 41.7 / 45.4 to 45.6) Control rod drive mechanism system</t>
+  </si>
+  <si>
+    <t>(G2.1.28) CONDUCT OF OPERATIONS Knowledge of the purpose and function of major system components and controls (CFR: 41.7)</t>
+  </si>
+  <si>
+    <t>(G2.1.15) CONDUCT OF OPERATIONS Knowledge of administrative requirements for temporary management direction, such as standing orders, night orders, or operations memoranda (CFR: 41.10 / 45.12)</t>
+  </si>
+  <si>
+    <t>(G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
+  </si>
+  <si>
+    <t>(G2.4.28) EMERGENCY PROCEDURES / PLAN Knowledge of procedures relating to a security event (ensure that the test item includes no safeguards information) (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(292003K1.08) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Given the power equation, solve problems for power </t>
+  </si>
+  <si>
+    <t>(292005K1.09) CONTROL RODS (CFR: 41.1) Explain direction of change in the magnitude of CRW for a change in moderator temperature, void fraction, control rod density, and xenon</t>
+  </si>
+  <si>
+    <t>(292001K1.04) NEUTRONS (CFR: 41.1) Describe neutron moderation</t>
+  </si>
+  <si>
+    <t>(293006K1.08) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Discuss pump head</t>
+  </si>
+  <si>
+    <t>(293009K1.09) CORE THERMAL LIMITS (CFR: 41.14) (LHGR) Define FLPD and MFLPD</t>
+  </si>
+  <si>
+    <t>(293008K1.11) THERMAL HYDRAULICS (CFR: 41.14) (POOL BOILING CURVE (TEMPERATURE VS. HEAT FLUX)) Describe transition (partial film) boiling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(295001AA2.05) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Jet pump operability </t>
+  </si>
+  <si>
+    <t>(700000) (APE 25) GENERATOR VOLTAGE AND ELECTRIC GRID DISTURBANCES (G2.4.4) EMERGENCY PROCEDURES / PLAN Ability to recognize abnormal indications for system operating parameters that are entry-level conditions for emergency and abnormal operating procedures (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(295003AA2.01) Ability to determine and/or interpret the following as they apply to (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER: (CFR: 41.10 / 43.5 / 45.13) Partial or complete loss of AC power</t>
+  </si>
+  <si>
+    <t>(295027) (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) (G2.1.25) CONDUCT OF OPERATIONS Ability to interpret reference materials, such as graphs, curves, and tables (reference potential) (CFR: 41.10 / 43.5 / 45.12)</t>
+  </si>
+  <si>
+    <t>(600000AA2.10) Ability to determine and/or interpret the following as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.10 / 43.5 / 45.13) Time limit of long-term-breathing air system for control room</t>
+  </si>
+  <si>
+    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
   </si>
   <si>
     <t xml:space="preserve">(295019AA2.01) Ability to determine and/or interpret the following as they apply to (APE 19) PARTIAL OR COMPLETE LOSS OF INSTRUMENT AIR: (CFR: 41.10 / 43.5 / 45.13) Instrument air pressure </t>
   </si>
   <si>
-    <t>(295027EK2.04) Knowledge of the relationship between the (EPE 4) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY) and the following systems or components: (CFR: 41.7 / 45.8) Plant process computer/parameter display systems.</t>
-  </si>
-  <si>
-    <t>(600000AK3.04) Knowledge of the reasons for the following responses or actions as they apply to (APE 24) PLANT FIRE ON SITE: (CFR: 41.5 / 41.10 / 45.6 / 45.13) Actions contained in the fire response procedures for a plant fire on site</t>
-  </si>
-  <si>
-    <t>(295033EA1.01) Ability to operate and/or monitor the following as they apply to (EPE 10) HIGH SECONDARY CONTAINMENT AREA RADIATION LEVELS: (CFR: 41.7 / 45.6) Area radiation monitoring system</t>
-  </si>
-  <si>
-    <t>(295034) (EPE 11) SECONDARY CONTAINMENT VENTILATION HIGH RADIATION (G2.2.22) EQUIPMENT CONTROL Knowledge of limiting conditions for operation and safety limits (CFR: 41.5 / 43.2 / 45.2)</t>
-  </si>
-  <si>
-    <t>(295022AA2.02) Ability to determine and/or interpret the following as they apply to (APE 22) LOSS OF CONTROL ROD DRIVE PUMPS: (CFR: 41.10 / 43.5 / 45.13) CRD hydraulic system status</t>
-  </si>
-  <si>
-    <t>(295020AK2.10) Knowledge of the relationship between the (APE 20) INADVERTENT CONTAINMENT ISOLATION and the following systems or components: (CFR: 41.7 / 45.8) Drywell equipment/floor drain sumps</t>
-  </si>
-  <si>
-    <t>(295002AK3.01) Knowledge of the reasons for the following responses or actions as they apply to (APE 2) LOSS OF MAIN CONDENSER VACUUM: (CFR: 41.5 / 45.6) Reactor SCRAM</t>
-  </si>
-  <si>
-    <t>(295014AK1.10) Knowledge of the operational implications and/or cause and effect relationships of the following concepts as they apply to the (APE 14) INADVERTENT REACTIVITY ADDITION: (CFR: 41.8 to 41.10) Safety limits</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.2.41) EQUIPMENT CONTROL Ability to obtain and interpret station electrical and mechanical drawings (reference potential) (CFR: 41.10 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(263000A4.06) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Transfers</t>
-  </si>
-  <si>
-    <t>(215004K2.03) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive module control</t>
-  </si>
-  <si>
-    <t>(209001K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Torus/suppression pool water level</t>
-  </si>
-  <si>
-    <t>(262001A3.05) Ability to monitor automatic operation of the (SF6 AC) AC ELECTRICAL DISTRIBUTION including: (CFR: 41.7 / 45.7) Synchronization of AC sources</t>
-  </si>
-  <si>
-    <t>(209002K1.07) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Plant ventilation systems (HPCS room coolers )</t>
-  </si>
-  <si>
-    <t>(264000A1.06) Ability to predict and/or monitor changes in parameters associated with operation of the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) including: (CFR: 41.5 / 45.5) Emergency generator room temperature</t>
-  </si>
-  <si>
-    <t>(217000K3.02) Knowledge of the effect that a loss or malfunction of the (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM (BWR 3, 4, 5, 6) will have on the following systems or system parameters: (CFR: 41.7 / 45.4) Reactor vessel pressure</t>
-  </si>
-  <si>
-    <t>(239002K5.07) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF3 SRV) SAFETY RELIEF VALVES: (CFR: 41.5 / 45.3) Rapid depressurization of the reactor</t>
-  </si>
-  <si>
-    <t>(215003K4.01) Knowledge of (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Rod withdrawal blocks</t>
-  </si>
-  <si>
-    <t>(400000A2.17) Ability to (a) predict the impacts of the following on the (SF8 CCS) COMPONENT COOLING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of cooling to ECCS pump rooms</t>
-  </si>
-  <si>
-    <t>(262002) (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) (291007K1.02) DEMINERALIZERS AND ION EXCHANGERS (CFR: 41.3) Reason for sampling inlet and outlet of demineralizer</t>
-  </si>
-  <si>
-    <t>(218000A4.03) Ability to manually operate and/or monitor the (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) ADS logic reset</t>
-  </si>
-  <si>
-    <t>(205000K2.02) (SF4 SCS) SHUTDOWN COOLING SYSTEM (RHR SHUTDOWN COOLING MODE) Knowledge of electrical power supplies to the following: (CFR: 41.7) Motor-operated valves</t>
-  </si>
-  <si>
-    <t>(211000K6.03) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF1 SLCS) STANDBY LIQUID CONTROL SYSTEM: (CFR: 41.7 / 45.7) AC power</t>
-  </si>
-  <si>
-    <t>(300000A3.03) Ability to monitor automatic operation of the (SF8 IA) INSTRUMENT AIR SYSTEM including: (CFR: 41.8 / 45.7) Compressor automatic starts/trips</t>
-  </si>
-  <si>
-    <t>(203000K1.09) Knowledge of the physical connections and/or cause and effect relationships between the (SF2, SF4 RHR/LPCI) RHR/LPCI: INJECTION MODE (BWR 3, 4, 5, 6) and the following systems: (CFR: 41.2 to 41.9 / 43.5 / 45.7 / 45.8) Emergency generators</t>
-  </si>
-  <si>
-    <t>(223002A1.04) Ability to predict and/or monitor changes in parameters associated with operation of the (SF5 PCIS) PRIMARY CONTAINMENT ISOLATION SYSTEM / NUCLEAR STEAM SUPPLY SHUTOFF including: (CFR: 41.5 / 45.5) Individual system relay status</t>
-  </si>
-  <si>
-    <t>(259002K3.06) Knowledge of the effect that a loss or malfunction of the (SF2 RWLCS) REACTOR WATER LEVEL CONTROL SYSTEM will have on the following systems or system parameters: (CFR: 41.7 / 45.4 to 45.8) Main turbine generator and auxiliaries</t>
-  </si>
-  <si>
-    <t>(215005K5.05) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR: (CFR: 41.5 / 45.3) Core flow effects on APRM trip setpoints</t>
-  </si>
-  <si>
-    <t>(261000K4.05) Knowledge of (SF9 SGTS) STANDBY GAS TREATMENT SYSTEM design features and/or interlocks that provide for the following: (CFR: 41.7) Fission product gas removal</t>
-  </si>
-  <si>
-    <t>(510000A2.02) Ability to (a) predict the impacts of the following on the (SF4 SWS*) SERVICE WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Abnormal valve positions</t>
-  </si>
-  <si>
-    <t>(212000) (SF7 RPS) REACTOR PROTECTION SYSTEM  (G2.2.40) EQUIPMENT CONTROL Ability to apply technical specifications with action statements of less than or equal to 1 hour (CFR: 41.10 / 43.2 / 43.5 / 45.3)</t>
-  </si>
-  <si>
-    <t>(263000A4.01) Ability to manually operate and/or monitor the (SF6 DC) DC ELECTRICAL DISTRIBUTION in the control room: (CFR: 41.7 / 45.5 to 45.8) Operationally significant breakers and control power fuses</t>
-  </si>
-  <si>
-    <t>(215004K2.02) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Detector drive modules</t>
-  </si>
-  <si>
-    <t>(209001K6.04) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF2, SF4 LPCS) LOW PRESSURE CORE SPRAY SYSTEM : (CFR: 41.7 / 45.7) Loss of DC electrical distribution system</t>
-  </si>
-  <si>
-    <t>(290001K4.03) Knowledge of (SF5 SC) SECONDARY CONTAINMENT design features and/or interlocks that provide for the following: (CFR: 41.7) Fluid leakage collection</t>
-  </si>
-  <si>
-    <t>(510001A2.01) Ability to (a) predict the impacts of the following on the (SF8 CWS*) CIRCULATING WATER SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.1 / 41.5 / 43.5 / 45.3 / 45.6 / 45.13) Pump/Motor failure</t>
-  </si>
-  <si>
-    <t>(215001) (SF7 TIP) TRAVERSING IN CORE PROBE (291004K1.02) PUMPS (CFR: 41.3) (CENTRIFUGAL) Reasons for venting a centrifugal pump</t>
-  </si>
-  <si>
-    <t>(239001A4.01) Ability to manually operate and/or monitor the (SF3, SF4 MRSS) MAIN AND REHEAT STEAM SYSTEM in the control room: (CFR: 41.7 / 45.5 to 45.8) MSIVs</t>
-  </si>
-  <si>
-    <t>(201001K2.01) (SF1 CRDH) CRD HYDRAULIC SYSTEM Knowledge of electrical power supplies to the following: (CFR: 41.7) Pumps</t>
-  </si>
-  <si>
-    <t>(245000K6.06) Knowledge of the effect of the following plant conditions, system malfunctions, or component malfunctions on the (SF4 MTGEN) MAIN TURBINE GENERATOR AND AUXILIARY SYSTEMS: (CFR: 41.7 / 45.7) Electrical distribution</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(226001A3.01) Ability to monitor automatic operation of the (SF5 RHR CSS) RHR/LPCI: CONTAINMENT SPRAY MODE SYSTEM MODE including: (CFR: 41.7 / 45.7) Valve operation </t>
-  </si>
-  <si>
-    <t>(219000K1.06) Knowledge of the physical connections and/or cause and effect relationships between the (SF5 RHR SPC) RHR/LPCI: TORUS/SUPPRESSION POOL COOLING MODE and the following systems: (CFR: 41.2 to 41.9 / 45.7 / 45.8) Keep fill system</t>
-  </si>
-  <si>
-    <t>(202001A1.11) Ability to predict and/or monitor changes in parameters associated with operation of the (SF1, SF4 RS) RECIRCULATION SYSTEM including: (CFR: 41.5 / 45.5) Vessel bottom head drain temperature</t>
-  </si>
-  <si>
-    <t>(290003K3.03) Knowledge of the effect that a loss or malfunction of the (SF9 CRV) CONTROL ROOM VENTILATION will have on the following systems or system parameters: (CFR: 41.7 / 45.6) Control room temperature</t>
-  </si>
-  <si>
-    <t>(256000K5.10) Knowledge of the operational implications or cause and effect relationships of the following concepts as they apply to the (SF2 CDS) CONDENSATE SYSTEM: (CFR: 41.5 / 45.3) Air ejection operation</t>
-  </si>
-  <si>
-    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station’s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.34) CONDUCT OF OPERATIONS Knowledge of RCS or balance of plant chemistry controls, including parameters measured and reasons for the control (CFR: 41.10 / 43.5 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.2.36) EQUIPMENT CONTROL Ability to analyze the effect of maintenance activities, such as degraded power sources, on the status of limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.2.21) EQUIPMENT CONTROL Knowledge of pre- and post-maintenance operability requirements (CFR: 41.10 / 43.2)</t>
-  </si>
-  <si>
-    <t>(G2.3.5) RADIATION CONTROL Ability to use radiation monitoring systems, such as fixed radiation monitors and alarms or personnel monitoring equipment (CFR: 41.11 / 41.12 / 43.4 / 45.9)</t>
-  </si>
-  <si>
-    <t>(G2.4.6) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures major action categories (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(292003K1.05) REACTOR KINETICS AND NEUTRON SOURCES (CFR: 41.1) Define reactor period</t>
-  </si>
-  <si>
-    <t>(292006K1.08) FISSION PRODUCT POISONS (CFR: 41.1) Describe the effects that xenon concentration has on flux shape and control rod patterns</t>
-  </si>
-  <si>
-    <t>(292001K1.02) NEUTRONS (CFR: 41.1) Define prompt and delayed neutrons</t>
-  </si>
-  <si>
-    <t>(293008K1.25) THERMAL HYDRAULICS (CFR: 41.14) (RECIRCULATION SYSTEM) Explain the reason for forced core recirculation</t>
-  </si>
-  <si>
-    <t>(293004K1.12) THERMODYNAMIC PROCESS (CFR: 41.14) (CONDENSERS) Describe the process of condensate depression (subcooling) and its effect on plant operation</t>
-  </si>
-  <si>
-    <t>(293006K1.14) FLUID STATICS AND DYNAMICS (CFR: 41.14) (PUMPS AND PUMP CHARACTERISTICS) Explain the results of putting centrifugal pumps in parallel or series combinations</t>
-  </si>
-  <si>
-    <t>(295038EA2.06) Ability to determine and/or interpret the following as they apply to (EPE 15) HIGH OFFSITE RADIOACTIVITY RELEASE RATE: (CFR: 41.10 / 43.5 / 45.13) Meteorological data</t>
-  </si>
-  <si>
-    <t>(295023) (APE 23) REFUELING ACCIDENTS (G2.1.23) CONDUCT OF OPERATIONS Ability to perform general or normal operating procedures during any plant condition (CFR: 41.10 / 43.5 / 45.2 / 45.6)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(295031EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 8) REACTOR LOW WATER LEVEL: (CFR: 41.10 / 43.5 / 45.13) Reactor water level </t>
-  </si>
-  <si>
-    <t>(295030) (EPE 7) LOW SUPPRESSION POOL WATER LEVEL (G2.2.25) EQUIPMENT CONTROL Knowledge of the bases in technical specifications for limiting conditions for operation and safety limits (SRO Only) (CFR: 43.2)</t>
-  </si>
-  <si>
-    <t>(295016AA2.08) Ability to determine and/or interpret the following as they apply to (APE 16) CONTROL ROOM ABANDONMENT: (CFR: 41.10 / 43.5 / 45.13) Successful transfer</t>
-  </si>
-  <si>
-    <t>(295003) (APE 3) PARTIAL OR COMPLETE LOSS OF AC POWER (G2.1.8) CONDUCT OF OPERATIONS Ability to coordinate personnel activities outside the control room (CFR: 41.10 / 43.1 / 45.5 / 45.12 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295001AA2.07) Ability to determine and/or interpret the following as they apply to (APE 1) PARTIAL OR COMPLETE LOSS OF FORCED CORE FLOW CIRCULATION: (CFR: 41.10 / 43.5 / 45.13) Reactor power</t>
-  </si>
-  <si>
-    <t>(295035EA2.03) Ability to determine and/or interpret the following as they apply to (EPE 12) SECONDARY CONTAINMENT HIGH DIFFERENTIAL PRESSURE: (CFR: 41.8 to 41.10) Lights and alarms</t>
-  </si>
-  <si>
-    <t>(295008) (APE 8) HIGH REACTOR WATER LEVEL (G2.2.14) EQUIPMENT CONTROL Knowledge of the process for controlling equipment configuration or status (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(295011AA2.01) Ability to determine and/or interpret the following as they apply to (APE 11) HIGH CONTAINMENT TEMPERATURE (MARK III CONTAINMENT ONLY): (CFR: 41.10 / 43.5 / 45.13) Containment temperature</t>
-  </si>
-  <si>
-    <t>(262001A2.10) Ability to (a) predict the impacts of the following on the (SF6 AC) AC ELECTRICAL DISTRIBUTION and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Exceeding current limitations</t>
-  </si>
-  <si>
-    <t>(209002) (SF2, SF4 HPCS) HIGH PRESSURE CORE SPRAY SYSTEM  (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
-  </si>
-  <si>
-    <t>(264000A2.12) Ability to (a) predict the impacts of the following on the (SF6 EGE) EMERGENCY GENERATORS (DIESEL/JET) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of DC electrical distribution</t>
-  </si>
-  <si>
-    <t>(217000) (SF2, SF4 RCIC) REACTOR CORE ISOLATION COOLING SYSTEM  (G2.4.14) EMERGENCY PROCEDURES / PLAN Knowledge of general guidelines for emergency and abnormal operating procedures usage (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(239002A2.04) Ability to (a) predict the impacts of the following on the (SF3 SRV) SAFETY RELIEF VALVES and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) ADS actuation</t>
-  </si>
-  <si>
-    <t>(234000A4.01) Ability to manually operate and/or monitor the (SF8 FH) FUEL HANDLING in the control room: (CFR: 41.7 / 45.5 to 45.8) Neutron monitoring system</t>
-  </si>
-  <si>
-    <t>(268000A2.04) Ability to (a) predict the impacts of the following on the (SF9 RW) RADWASTE SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Radiological release isolation valve failure</t>
-  </si>
-  <si>
-    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.4.46) EMERGENCY PROCEDURES / PLAN Ability to verify that the alarms are consistent with the plant conditions (CFR: 41.10 / 43.5 / 45.3 / 45.12)</t>
-  </si>
-  <si>
-    <t>(G2.1.2) CONDUCT OF OPERATIONS Knowledge of operator responsibilities during any mode of plant operation (CFR: 41.10 / 43.1 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.1.36) CONDUCT OF OPERATIONS Knowledge of procedures and limitations involved in core alterations (CFR: 41.10 / 43.6 / 45.7)</t>
+    <t>(500000EA2.01) Ability to determine and/or interpret the following as they apply to (EPE 16) HIGH CONTAINMENT HYDROGEN CONCENTRATION: (CFR: 41.10 / 43.5 / 45.13) Hydrogen monitoring availability</t>
+  </si>
+  <si>
+    <t>(295036) (EPE 13) SECONDARY CONTAINMENT HIGH SUMP/AREA WATER LEVEL (G2.4.19) EMERGENCY PROCEDURES / PLAN Knowledge of emergency and abnormal operating procedures layout, symbols, and icons (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(295032EA2.02) Ability to determine and/or interpret the following as they apply to (EPE 9) HIGH SECONDARY CONTAINMENT AREA TEMPERATURE: (CFR: 41.10 / 43.5 / 45.13) Equipment operability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(215005A2.13) Ability to (a) predict the impacts of the following on the (SF7 PRMS) AVERAGE POWER RANGE MONITOR/LOCAL POWER RANGE MONITOR and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) </t>
+  </si>
+  <si>
+    <t>(218000) (SF3 ADS) AUTOMATIC DEPRESSURIZATION SYSTEM (G2.4.42) EMERGENCY PROCEDURES / PLAN Knowledge of emergency response facilities (CFR: 41.10 / 45.11)</t>
+  </si>
+  <si>
+    <t>(262002A2.05) Ability to (a) predict the impacts of the following on the (SF6 UPS) UNINTERRUPTABLE POWER SUPPLY (AC/DC) and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Loss of UPS</t>
+  </si>
+  <si>
+    <t>(215004) (SF7 SRMS) SOURCE RANGE MONITOR SYSTEM  (G2.2.39) EQUIPMENT CONTROL Knowledge of less than or equal to 1 hour technical specification action statements (This K/A does not include action statements of 1 hour or less that follow the expiration of a completion time for a technical specification condition for which an action statement has already been entered.) (CFR: 41.7 / 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(215003A2.07) Ability to (a) predict the impacts of the following on the (SF7 IRM) INTERMEDIATE RANGE MONITOR SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 43.5 / 45.6) Failed recorder</t>
+  </si>
+  <si>
+    <t>(268000) (SF9 RW) RADWASTE SYSTEM (G2.2.12) EQUIPMENT CONTROL Knowledge of surveillance procedures (CFR: 41.10 / 43.2 / 45.13)</t>
+  </si>
+  <si>
+    <t>(272000A2.07) Ability to (a) predict the impacts of the following on the (SF7, SF9 RMS) RADIATION MONITORING SYSTEM and (b) based on those predictions, use procedures to correct, control, or mitigate the consequences of those abnormal operations: (CFR: 41.5 / 45.6) Hydrogen injection operation</t>
+  </si>
+  <si>
+    <t>(288000) (SF9 PVS) PLANT VENTILATION SYSTEMS  (G2.2.6) EQUIPMENT CONTROL Knowledge of the process for making changes to procedures (CFR: 41.10 / 43.3 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.38) CONDUCT OF OPERATIONS Knowledge of the station\u2019s requirements for verbal communications when implementing procedures (CFR: 41.10 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.1.40) CONDUCT OF OPERATIONS Knowledge of refueling administrative requirements (CFR: 41.10 / 43.5 / 43.6 / 45.13)</t>
   </si>
   <si>
     <t>(G2.2.15) EQUIPMENT CONTROL Ability to determine the expected plant configuration using design and configuration control documentation, such as drawings, lineups or, tagouts (reference potential) (CFR: 41.10 / 43.3 / 45.13)</t>
   </si>
   <si>
-    <t>(G2.2.23) EQUIPMENT CONTROL Ability to track technical specification limiting conditions for operation (CFR: 41.10 / 43.2 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.3.11) RADIATION CONTROL Ability to control radiation releases (CFR: 41.11 / 43.4 / 45.10)</t>
-  </si>
-  <si>
-    <t>(G2.4.32) EMERGENCY PROCEDURES / PLAN Knowledge of operator response to loss of annunciators (CFR: 41.10 / 43.5 / 45.13)</t>
-  </si>
-  <si>
-    <t>(G2.4.3) EMERGENCY PROCEDURES / PLAN Ability to identify post-accident instrumentation (CFR: 41.6 / 45.4)</t>
+    <t>(G2.2.19) EQUIPMENT CONTROL Knowledge of maintenance work order requirements (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>(G2.3.12) RADIATION CONTROL Knowledge of radiological safety principles and procedures pertaining to licensed operator duties, such as response to radiation monitor alarms, containment entry requirements, fuel handling responsibilities, access to locked high-radiation areas, or alignment of filters (CFR: 41.12 / 43.4 / 45.9 / 45.10)</t>
+  </si>
+  <si>
+    <t>(G2.4.49) EMERGENCY PROCEDURES / PLAN Ability to perform without reference to procedures those actions that require immediate operation of system components and controls (CFR: 41.10 / 43.2 / 45.6)</t>
+  </si>
+  <si>
+    <t>(G2.4.43) EMERGENCY PROCEDURES / PLAN Knowledge of emergency communications systems and techniques (CFR: 41.10 / 43.5 / 45.13)</t>
+  </si>
+  <si>
+    <t>K1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>K3</t>
   </si>
   <si>
     <t>K2</t>
   </si>
   <si>
-    <t>K3</t>
-  </si>
-  <si>
-    <t>K1</t>
-  </si>
-  <si>
-    <t>A1</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>A4</t>
   </si>
   <si>
+    <t>K4</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
     <t>K6</t>
   </si>
   <si>
-    <t>A3</t>
-  </si>
-  <si>
     <t>K5</t>
   </si>
   <si>
-    <t>K4</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -385,214 +385,214 @@
     <t>T</t>
   </si>
   <si>
+    <t>295001</t>
+  </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>295003</t>
+  </si>
+  <si>
+    <t>295027</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>295023</t>
+  </si>
+  <si>
+    <t>295019</t>
+  </si>
+  <si>
+    <t>295026</t>
+  </si>
+  <si>
+    <t>295025</t>
+  </si>
+  <si>
+    <t>295037</t>
+  </si>
+  <si>
+    <t>295016</t>
+  </si>
+  <si>
+    <t>295024</t>
+  </si>
+  <si>
+    <t>295006</t>
+  </si>
+  <si>
+    <t>295018</t>
+  </si>
+  <si>
+    <t>295004</t>
+  </si>
+  <si>
+    <t>295021</t>
+  </si>
+  <si>
+    <t>295005</t>
+  </si>
+  <si>
+    <t>295031</t>
+  </si>
+  <si>
     <t>295038</t>
   </si>
   <si>
-    <t>295023</t>
-  </si>
-  <si>
-    <t>295031</t>
-  </si>
-  <si>
     <t>295030</t>
   </si>
   <si>
-    <t>295016</t>
-  </si>
-  <si>
-    <t>295003</t>
-  </si>
-  <si>
-    <t>295001</t>
-  </si>
-  <si>
-    <t>295025</t>
-  </si>
-  <si>
-    <t>295026</t>
-  </si>
-  <si>
-    <t>700000</t>
-  </si>
-  <si>
-    <t>295004</t>
-  </si>
-  <si>
-    <t>295018</t>
-  </si>
-  <si>
-    <t>295024</t>
-  </si>
-  <si>
-    <t>295005</t>
-  </si>
-  <si>
-    <t>295021</t>
-  </si>
-  <si>
-    <t>295006</t>
-  </si>
-  <si>
-    <t>295037</t>
-  </si>
-  <si>
-    <t>295019</t>
-  </si>
-  <si>
-    <t>295027</t>
-  </si>
-  <si>
-    <t>600000</t>
+    <t>295029</t>
   </si>
   <si>
     <t>295033</t>
   </si>
   <si>
-    <t>295034</t>
+    <t>295002</t>
+  </si>
+  <si>
+    <t>295012</t>
+  </si>
+  <si>
+    <t>295007</t>
   </si>
   <si>
     <t>295022</t>
   </si>
   <si>
-    <t>295020</t>
-  </si>
-  <si>
-    <t>295002</t>
-  </si>
-  <si>
-    <t>295014</t>
+    <t>300000</t>
+  </si>
+  <si>
+    <t>203000</t>
+  </si>
+  <si>
+    <t>239002</t>
+  </si>
+  <si>
+    <t>259002</t>
+  </si>
+  <si>
+    <t>215005</t>
+  </si>
+  <si>
+    <t>218000</t>
+  </si>
+  <si>
+    <t>262002</t>
+  </si>
+  <si>
+    <t>215004</t>
+  </si>
+  <si>
+    <t>215003</t>
+  </si>
+  <si>
+    <t>263000</t>
+  </si>
+  <si>
+    <t>261000</t>
+  </si>
+  <si>
+    <t>209001</t>
+  </si>
+  <si>
+    <t>262001</t>
   </si>
   <si>
     <t>212000</t>
   </si>
   <si>
-    <t>263000</t>
-  </si>
-  <si>
-    <t>215004</t>
-  </si>
-  <si>
-    <t>209001</t>
-  </si>
-  <si>
-    <t>262001</t>
+    <t>217000</t>
+  </si>
+  <si>
+    <t>264000</t>
+  </si>
+  <si>
+    <t>400000</t>
+  </si>
+  <si>
+    <t>223002</t>
+  </si>
+  <si>
+    <t>211000</t>
+  </si>
+  <si>
+    <t>205000</t>
   </si>
   <si>
     <t>209002</t>
   </si>
   <si>
-    <t>264000</t>
-  </si>
-  <si>
-    <t>217000</t>
-  </si>
-  <si>
-    <t>239002</t>
-  </si>
-  <si>
-    <t>215003</t>
-  </si>
-  <si>
-    <t>400000</t>
-  </si>
-  <si>
-    <t>262002</t>
-  </si>
-  <si>
-    <t>218000</t>
-  </si>
-  <si>
-    <t>205000</t>
-  </si>
-  <si>
-    <t>211000</t>
-  </si>
-  <si>
-    <t>300000</t>
-  </si>
-  <si>
-    <t>203000</t>
-  </si>
-  <si>
-    <t>223002</t>
-  </si>
-  <si>
-    <t>259002</t>
-  </si>
-  <si>
-    <t>215005</t>
-  </si>
-  <si>
-    <t>261000</t>
-  </si>
-  <si>
     <t>510000</t>
   </si>
   <si>
+    <t>241000</t>
+  </si>
+  <si>
+    <t>216000</t>
+  </si>
+  <si>
+    <t>204000</t>
+  </si>
+  <si>
     <t>290001</t>
   </si>
   <si>
-    <t>510001</t>
-  </si>
-  <si>
-    <t>215001</t>
-  </si>
-  <si>
-    <t>239001</t>
-  </si>
-  <si>
-    <t>201001</t>
+    <t>271000</t>
+  </si>
+  <si>
+    <t>290002</t>
+  </si>
+  <si>
+    <t>202001</t>
+  </si>
+  <si>
+    <t>286000</t>
+  </si>
+  <si>
+    <t>201003</t>
   </si>
   <si>
     <t>245000</t>
   </si>
   <si>
-    <t>226001</t>
-  </si>
-  <si>
-    <t>219000</t>
-  </si>
-  <si>
-    <t>202001</t>
-  </si>
-  <si>
-    <t>290003</t>
-  </si>
-  <si>
-    <t>256000</t>
+    <t>201005</t>
   </si>
   <si>
     <t>292003</t>
   </si>
   <si>
-    <t>292006</t>
+    <t>292005</t>
   </si>
   <si>
     <t>292001</t>
   </si>
   <si>
+    <t>293006</t>
+  </si>
+  <si>
+    <t>293009</t>
+  </si>
+  <si>
     <t>293008</t>
   </si>
   <si>
-    <t>293004</t>
-  </si>
-  <si>
-    <t>293006</t>
-  </si>
-  <si>
-    <t>295035</t>
-  </si>
-  <si>
-    <t>295008</t>
-  </si>
-  <si>
-    <t>295011</t>
-  </si>
-  <si>
-    <t>234000</t>
+    <t>500000</t>
+  </si>
+  <si>
+    <t>295036</t>
+  </si>
+  <si>
+    <t>295032</t>
   </si>
   <si>
     <t>268000</t>
+  </si>
+  <si>
+    <t>272000</t>
   </si>
   <si>
     <t>288000</t>
@@ -984,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="D2" t="s">
         <v>105</v>
@@ -1001,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="D3" t="s">
         <v>106</v>
@@ -1018,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="D4" t="s">
         <v>107</v>
@@ -1035,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="D5" t="s">
         <v>108</v>
@@ -1052,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="D6" t="s">
         <v>109</v>
@@ -1069,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D7" t="s">
         <v>110</v>
@@ -1086,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>105</v>
@@ -1103,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>3.9</v>
+        <v>4.1</v>
       </c>
       <c r="D9" t="s">
         <v>106</v>
@@ -1120,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="D10" t="s">
         <v>107</v>
@@ -1137,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="D11" t="s">
         <v>108</v>
@@ -1154,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="C12">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
         <v>109</v>
@@ -1171,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="D13" t="s">
         <v>110</v>
@@ -1188,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="C14">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="D14" t="s">
         <v>105</v>
@@ -1205,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="C15">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D15" t="s">
         <v>106</v>
@@ -1222,7 +1222,7 @@
         <v>19</v>
       </c>
       <c r="C16">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="D16" t="s">
         <v>107</v>
@@ -1239,7 +1239,7 @@
         <v>20</v>
       </c>
       <c r="C17">
-        <v>3.9</v>
+        <v>3.4</v>
       </c>
       <c r="D17" t="s">
         <v>108</v>
@@ -1256,7 +1256,7 @@
         <v>21</v>
       </c>
       <c r="C18">
-        <v>4.4</v>
+        <v>3.9</v>
       </c>
       <c r="D18" t="s">
         <v>109</v>
@@ -1273,7 +1273,7 @@
         <v>22</v>
       </c>
       <c r="C19">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="D19" t="s">
         <v>110</v>
@@ -1290,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="C20">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="D20" t="s">
         <v>105</v>
@@ -1307,7 +1307,7 @@
         <v>24</v>
       </c>
       <c r="C21">
-        <v>3.6</v>
+        <v>4.1</v>
       </c>
       <c r="D21" t="s">
         <v>106</v>
@@ -1324,7 +1324,7 @@
         <v>25</v>
       </c>
       <c r="C22">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="D22" t="s">
         <v>108</v>
@@ -1341,7 +1341,7 @@
         <v>26</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="D23" t="s">
         <v>109</v>
@@ -1358,7 +1358,7 @@
         <v>27</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>2.7</v>
       </c>
       <c r="D24" t="s">
         <v>110</v>
@@ -1375,7 +1375,7 @@
         <v>28</v>
       </c>
       <c r="C25">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="D25" t="s">
         <v>105</v>
@@ -1392,7 +1392,7 @@
         <v>29</v>
       </c>
       <c r="C26">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="D26" t="s">
         <v>106</v>
@@ -1409,7 +1409,7 @@
         <v>30</v>
       </c>
       <c r="C27">
-        <v>4.3</v>
+        <v>3</v>
       </c>
       <c r="D27" t="s">
         <v>107</v>
@@ -1429,7 +1429,7 @@
         <v>3.5</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>149</v>
@@ -1443,10 +1443,10 @@
         <v>32</v>
       </c>
       <c r="C29">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>150</v>
@@ -1460,10 +1460,10 @@
         <v>33</v>
       </c>
       <c r="C30">
-        <v>2.6</v>
+        <v>3.3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -1477,10 +1477,10 @@
         <v>34</v>
       </c>
       <c r="C31">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="D31" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E31" t="s">
         <v>152</v>
@@ -1497,7 +1497,7 @@
         <v>3.7</v>
       </c>
       <c r="D32" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" t="s">
         <v>153</v>
@@ -1511,10 +1511,10 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>3.1</v>
+        <v>4.1</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
         <v>154</v>
@@ -1528,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="C34">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="D34" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E34" t="s">
         <v>155</v>
@@ -1545,10 +1545,10 @@
         <v>38</v>
       </c>
       <c r="C35">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E35" t="s">
         <v>156</v>
@@ -1562,10 +1562,10 @@
         <v>39</v>
       </c>
       <c r="C36">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E36" t="s">
         <v>157</v>
@@ -1579,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="C37">
-        <v>4</v>
+        <v>2.9</v>
       </c>
       <c r="D37" t="s">
         <v>115</v>
@@ -1599,7 +1599,7 @@
         <v>3.5</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E38" t="s">
         <v>159</v>
@@ -1613,10 +1613,10 @@
         <v>42</v>
       </c>
       <c r="C39">
-        <v>2.6</v>
+        <v>4.2</v>
       </c>
       <c r="D39" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E39" t="s">
         <v>160</v>
@@ -1630,10 +1630,10 @@
         <v>43</v>
       </c>
       <c r="C40">
-        <v>3.9</v>
+        <v>2.5</v>
       </c>
       <c r="D40" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E40" t="s">
         <v>161</v>
@@ -1647,10 +1647,10 @@
         <v>44</v>
       </c>
       <c r="C41">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E41" t="s">
         <v>162</v>
@@ -1664,10 +1664,10 @@
         <v>45</v>
       </c>
       <c r="C42">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D42" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E42" t="s">
         <v>163</v>
@@ -1681,10 +1681,10 @@
         <v>46</v>
       </c>
       <c r="C43">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="D43" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E43" t="s">
         <v>164</v>
@@ -1698,10 +1698,10 @@
         <v>47</v>
       </c>
       <c r="C44">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E44" t="s">
         <v>165</v>
@@ -1715,10 +1715,10 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>3</v>
+        <v>3.7</v>
       </c>
       <c r="D45" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s">
         <v>166</v>
@@ -1732,10 +1732,10 @@
         <v>49</v>
       </c>
       <c r="C46">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="D46" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E46" t="s">
         <v>167</v>
@@ -1749,10 +1749,10 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E47" t="s">
         <v>168</v>
@@ -1766,7 +1766,7 @@
         <v>51</v>
       </c>
       <c r="C48">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="D48" t="s">
         <v>115</v>
@@ -1783,10 +1783,10 @@
         <v>52</v>
       </c>
       <c r="C49">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="D49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E49" t="s">
         <v>170</v>
@@ -1800,10 +1800,10 @@
         <v>53</v>
       </c>
       <c r="C50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="D50" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E50" t="s">
         <v>149</v>
@@ -1817,10 +1817,10 @@
         <v>54</v>
       </c>
       <c r="C51">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="D51" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E51" t="s">
         <v>150</v>
@@ -1834,10 +1834,10 @@
         <v>55</v>
       </c>
       <c r="C52">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E52" t="s">
         <v>151</v>
@@ -1851,10 +1851,10 @@
         <v>56</v>
       </c>
       <c r="C53">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="D53" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E53" t="s">
         <v>152</v>
@@ -1868,7 +1868,7 @@
         <v>57</v>
       </c>
       <c r="C54">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="D54" t="s">
         <v>115</v>
@@ -1885,10 +1885,10 @@
         <v>58</v>
       </c>
       <c r="C55">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E55" t="s">
         <v>172</v>
@@ -1902,10 +1902,10 @@
         <v>59</v>
       </c>
       <c r="C56">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="D56" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E56" t="s">
         <v>173</v>
@@ -1919,10 +1919,10 @@
         <v>60</v>
       </c>
       <c r="C57">
-        <v>4.4</v>
+        <v>2.6</v>
       </c>
       <c r="D57" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E57" t="s">
         <v>174</v>
@@ -1936,10 +1936,10 @@
         <v>61</v>
       </c>
       <c r="C58">
-        <v>3.5</v>
+        <v>2.8</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E58" t="s">
         <v>175</v>
@@ -1953,10 +1953,10 @@
         <v>62</v>
       </c>
       <c r="C59">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="D59" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E59" t="s">
         <v>176</v>
@@ -1970,10 +1970,10 @@
         <v>63</v>
       </c>
       <c r="C60">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="D60" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
         <v>177</v>
@@ -1987,10 +1987,10 @@
         <v>64</v>
       </c>
       <c r="C61">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E61" t="s">
         <v>178</v>
@@ -2004,10 +2004,10 @@
         <v>65</v>
       </c>
       <c r="C62">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="D62" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="E62" t="s">
         <v>179</v>
@@ -2021,10 +2021,10 @@
         <v>66</v>
       </c>
       <c r="C63">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="D63" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" t="s">
         <v>180</v>
@@ -2038,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C64">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E64" t="s">
         <v>181</v>
@@ -2055,7 +2055,7 @@
         <v>68</v>
       </c>
       <c r="C65">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D65" t="s">
         <v>117</v>
@@ -2089,7 +2089,7 @@
         <v>70</v>
       </c>
       <c r="C67">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="D67" t="s">
         <v>118</v>
@@ -2106,7 +2106,7 @@
         <v>71</v>
       </c>
       <c r="C68">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="D68" t="s">
         <v>118</v>
@@ -2140,7 +2140,7 @@
         <v>73</v>
       </c>
       <c r="C70">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="D70" t="s">
         <v>120</v>
@@ -2157,7 +2157,7 @@
         <v>74</v>
       </c>
       <c r="C71">
-        <v>3.7</v>
+        <v>2.8</v>
       </c>
       <c r="D71" t="s">
         <v>121</v>
@@ -2174,7 +2174,7 @@
         <v>75</v>
       </c>
       <c r="C72">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D72" t="s">
         <v>121</v>
@@ -2191,7 +2191,7 @@
         <v>76</v>
       </c>
       <c r="C73">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="D73" t="s">
         <v>121</v>
@@ -2208,7 +2208,7 @@
         <v>77</v>
       </c>
       <c r="C74">
-        <v>3.2</v>
+        <v>2.6</v>
       </c>
       <c r="D74" t="s">
         <v>122</v>
@@ -2225,7 +2225,7 @@
         <v>78</v>
       </c>
       <c r="C75">
-        <v>3.1</v>
+        <v>3.7</v>
       </c>
       <c r="D75" t="s">
         <v>122</v>
@@ -2242,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="C76">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="D76" t="s">
         <v>122</v>
@@ -2259,10 +2259,10 @@
         <v>80</v>
       </c>
       <c r="C77">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>123</v>
@@ -2276,10 +2276,10 @@
         <v>81</v>
       </c>
       <c r="C78">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>124</v>
@@ -2293,10 +2293,10 @@
         <v>82</v>
       </c>
       <c r="C79">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E79" t="s">
         <v>125</v>
@@ -2313,7 +2313,7 @@
         <v>4.2</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E80" t="s">
         <v>126</v>
@@ -2327,10 +2327,10 @@
         <v>84</v>
       </c>
       <c r="C81">
-        <v>3.9</v>
+        <v>3</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E81" t="s">
         <v>127</v>
@@ -2347,7 +2347,7 @@
         <v>4.1</v>
       </c>
       <c r="D82" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E82" t="s">
         <v>128</v>
@@ -2361,10 +2361,10 @@
         <v>86</v>
       </c>
       <c r="C83">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E83" t="s">
         <v>129</v>
@@ -2378,10 +2378,10 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E84" t="s">
         <v>188</v>
@@ -2395,10 +2395,10 @@
         <v>88</v>
       </c>
       <c r="C85">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="D85" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E85" t="s">
         <v>189</v>
@@ -2412,10 +2412,10 @@
         <v>89</v>
       </c>
       <c r="C86">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="D86" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E86" t="s">
         <v>190</v>
@@ -2429,10 +2429,10 @@
         <v>90</v>
       </c>
       <c r="C87">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E87" t="s">
         <v>153</v>
@@ -2446,10 +2446,10 @@
         <v>91</v>
       </c>
       <c r="C88">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="D88" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E88" t="s">
         <v>154</v>
@@ -2463,10 +2463,10 @@
         <v>92</v>
       </c>
       <c r="C89">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="D89" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E89" t="s">
         <v>155</v>
@@ -2483,7 +2483,7 @@
         <v>4.5</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E90" t="s">
         <v>156</v>
@@ -2497,10 +2497,10 @@
         <v>94</v>
       </c>
       <c r="C91">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="D91" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E91" t="s">
         <v>157</v>
@@ -2514,10 +2514,10 @@
         <v>95</v>
       </c>
       <c r="C92">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="D92" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E92" t="s">
         <v>191</v>
@@ -2531,10 +2531,10 @@
         <v>96</v>
       </c>
       <c r="C93">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E93" t="s">
         <v>192</v>
@@ -2548,10 +2548,10 @@
         <v>97</v>
       </c>
       <c r="C94">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="D94" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E94" t="s">
         <v>193</v>
@@ -2565,7 +2565,7 @@
         <v>98</v>
       </c>
       <c r="C95">
-        <v>4.4</v>
+        <v>3.8</v>
       </c>
       <c r="D95" t="s">
         <v>117</v>
@@ -2582,7 +2582,7 @@
         <v>99</v>
       </c>
       <c r="C96">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="D96" t="s">
         <v>117</v>
@@ -2616,7 +2616,7 @@
         <v>101</v>
       </c>
       <c r="C98">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="D98" t="s">
         <v>118</v>
@@ -2633,7 +2633,7 @@
         <v>102</v>
       </c>
       <c r="C99">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="D99" t="s">
         <v>119</v>
@@ -2650,7 +2650,7 @@
         <v>103</v>
       </c>
       <c r="C100">
-        <v>4</v>
+        <v>4.4</v>
       </c>
       <c r="D100" t="s">
         <v>120</v>
@@ -2667,7 +2667,7 @@
         <v>104</v>
       </c>
       <c r="C101">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="D101" t="s">
         <v>120</v>
